--- a/Benchmark Visuals.xlsx
+++ b/Benchmark Visuals.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blcag\Documents\CMU Spring 2023 Folder\Animation\Final\AMCViewer-simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D60946-35FF-4D79-9FDF-0C31155B16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9331E-FDA4-4CFF-A97B-0F9505F0475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>Total</t>
   </si>
@@ -98,9 +99,6 @@
     <t>CUDA vs CPU (scene 0) Total, Speedup</t>
   </si>
   <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t>speedup</t>
   </si>
   <si>
@@ -114,6 +112,21 @@
   </si>
   <si>
     <t>CUDA vs CPU (scene 0) Integration</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>Frame-rates: Full Triangle Density (scene 0)</t>
+  </si>
+  <si>
+    <t>Frame-rates: Reduced Triangle Density (scene 0)</t>
+  </si>
+  <si>
+    <t>Frame-times: Full Triangle Density (scene 0)</t>
+  </si>
+  <si>
+    <t>Frame-times: Reduced Triangle Density (scene 0)</t>
   </si>
 </sst>
 </file>
@@ -149,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,6 +844,1318 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Integration Spedup, CUDA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPU, scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$87:$N$87</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$88:$N$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5737254013490301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.873922434762299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.177766939982305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.54626125975301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1592.39261680136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D5B-4CFD-BD46-D6D75DDD2062}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1373678719"/>
+        <c:axId val="1373670079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1373678719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373670079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373670079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373678719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forces Speedup, CUDA vs CPU,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$66:$O$67</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$68:$N$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65.202547289642595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.91343447296902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921.60257112596298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4244.4476914085299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20842.451395454002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AAF-4AF7-80CD-7808C7B0C4C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1373675359"/>
+        <c:axId val="1373666719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1373675359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373666719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373666719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373675359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Particles Speedup, CUDA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs CPU, scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$46:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$48:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.35698295723786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7299048953642897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.095122750523601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.34793974983501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555.60419100579804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89E9-41E4-9884-508FE594F0AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1373672959"/>
+        <c:axId val="1373674399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1373672959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373674399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373674399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373672959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Speedup, CUDA vs CPU, scene = 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$24:$N$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9832946557127098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9075654961593003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5565045427188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.164741750804101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.911772930648802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8996-49C7-8803-6573A9AC3BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1791346783"/>
+        <c:axId val="1791375583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1791346783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791375583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791375583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791346783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -940,7 +2266,7 @@
             <c:strRef>
               <c:f>Tabelle1!$B$23:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -954,9 +2280,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -964,10 +2287,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25:$G$25</c:f>
+              <c:f>Tabelle1!$B$25:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.9517500000000001E-4</c:v>
                 </c:pt>
@@ -981,9 +2304,6 @@
                   <c:v>3.2209199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.973E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.0012800000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1026,7 +2346,7 @@
             <c:strRef>
               <c:f>Tabelle1!$B$23:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -1040,9 +2360,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -1050,10 +2367,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$26:$G$26</c:f>
+              <c:f>Tabelle1!$B$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.8059399999999995E-4</c:v>
                 </c:pt>
@@ -1067,9 +2384,6 @@
                   <c:v>6.1728100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14912300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.27947499999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -1447,9 +2761,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$47:$G$47</c:f>
+              <c:f>Tabelle1!$B$47:$F$47</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -1463,9 +2777,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -1473,10 +2784,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$48:$G$48</c:f>
+              <c:f>Tabelle1!$B$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.0599499999999997E-5</c:v>
                 </c:pt>
@@ -1490,9 +2801,6 @@
                   <c:v>3.83667E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7651799999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>3.2440900000000003E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1533,9 +2841,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$47:$G$47</c:f>
+              <c:f>Tabelle1!$B$47:$F$47</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -1549,9 +2857,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -1559,10 +2864,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$49:$G$49</c:f>
+              <c:f>Tabelle1!$B$49:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.02722E-4</c:v>
                 </c:pt>
@@ -1576,9 +2881,6 @@
                   <c:v>4.6557200000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02732E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.80243E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1956,9 +3258,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$67:$G$67</c:f>
+              <c:f>Tabelle1!$B$67:$F$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -1972,9 +3274,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -1982,10 +3281,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$68:$G$68</c:f>
+              <c:f>Tabelle1!$B$68:$F$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.16516E-5</c:v>
                 </c:pt>
@@ -1999,9 +3298,6 @@
                   <c:v>1.30036E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1529600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.21645E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,9 +3338,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$67:$G$67</c:f>
+              <c:f>Tabelle1!$B$67:$F$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -2058,9 +3354,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -2068,10 +3361,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$69:$G$69</c:f>
+              <c:f>Tabelle1!$B$69:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.5971399999999998E-4</c:v>
                 </c:pt>
@@ -2085,9 +3378,6 @@
                   <c:v>5.5193100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.134524</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.25353799999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2465,9 +3755,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$87:$G$87</c:f>
+              <c:f>Tabelle1!$B$87:$F$87</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -2481,9 +3771,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -2491,10 +3778,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$88:$G$88</c:f>
+              <c:f>Tabelle1!$B$88:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0317800000000001E-6</c:v>
                 </c:pt>
@@ -2508,9 +3795,6 @@
                   <c:v>5.3753400000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9017900000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>4.9691200000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2551,9 +3835,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$87:$G$87</c:f>
+              <c:f>Tabelle1!$B$87:$F$87</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>radius = 32</c:v>
                 </c:pt>
@@ -2567,9 +3851,6 @@
                   <c:v>radius = 256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>radius = 384</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>radius = 512</c:v>
                 </c:pt>
               </c:strCache>
@@ -2577,10 +3858,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$89:$G$89</c:f>
+              <c:f>Tabelle1!$B$89:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>1.7982199999999999E-5</c:v>
                 </c:pt>
@@ -2594,9 +3875,6 @@
                   <c:v>1.87893E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3262500000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>7.9127899999999994E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2870,7 +4148,2223 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times, Full Density, Scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$108:$G$108</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$109:$G$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1.7214199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7228899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9396599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27812700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46824500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32C3-4775-A603-7DCAE3D01931}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$108:$G$108</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$110:$G$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7032599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7079400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3045199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20364699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44966299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84821899999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32C3-4775-A603-7DCAE3D01931}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1556101135"/>
+        <c:axId val="1556099215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1556101135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556099215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1556099215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> frame time, in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556101135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame Times,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Reduced Density, Scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15680205599300087"/>
+          <c:y val="0.30076443569553807"/>
+          <c:w val="0.83390507436570427"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$108:$O$108</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$109:$O$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1.7367799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7389600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7467799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7633300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8088900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3330799999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C10-47A7-8443-708A176CAFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$108:$O$108</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$110:$O$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7171800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7092799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.19051E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4879800000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33608100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C10-47A7-8443-708A176CAFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1726606383"/>
+        <c:axId val="1726614063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1726606383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1726614063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1726614063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average frame time, in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1726606383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame Rates, Reduced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Density, Scene = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$129:$O$129</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$130:$O$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>57.577816418890102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.505635552284097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.248193819485003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.710882251195201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.282521325232601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.8617964236117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E94-41E2-869E-4D4459F871A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$129:$O$129</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$131:$O$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.235013219347998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.504165496583397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.651469292539197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7813661200898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8461352071722796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9754731746215901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E94-41E2-869E-4D4459F871A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1512783903"/>
+        <c:axId val="1512785343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1512783903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512785343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1512785343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average frame rate,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512783903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame Rates, Full Density, Scene = 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$129:$G$129</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$130:$G$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.091575559712297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.0420108074224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.017539443337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6544120192474097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.59547976284215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1356341231620202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CCD-437D-9292-E2750D00DC80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$129:$G$129</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>radius = 32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radius = 64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>radius = 128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>radius = 256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>radius = 384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>radius = 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$131:$G$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.710942545471603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.550066161574797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.231393976564199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.91045780198088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2238876669861698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1789408159921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CCD-437D-9292-E2750D00DC80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1791346303"/>
+        <c:axId val="1791348703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1791346303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791348703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791348703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average frame</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> rates, in FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791346303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3070,6 +6564,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -3564,7 +7218,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4080,7 +7734,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4596,7 +8250,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5112,7 +8766,4135 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5810,6 +13592,294 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32870084-55E1-4400-2BA2-081BF4C677A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0CF0F9-B976-53EF-68EF-15E50E782422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99C13DC-1A0E-138A-6FB4-829120539440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F86299-859D-3F2D-F0F6-D52989A90513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234315</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A24D18-CF7C-5769-9D8D-1C6D5B1EAF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6C7C4D-3717-7F9F-56F3-35C0585F62FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6CE49D-C396-0656-694E-2C677086EEF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C7D1AA-F484-E60C-0743-350E5CDB53B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6075,11 +14145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39ECD5-9831-4C33-A2FC-2F9C36685351}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6171,7 +14253,7 @@
         <v>4.9371200000000003E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6179,7 +14261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -6193,19 +14275,25 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -6222,20 +14310,28 @@
         <v>3.2209199999999999E-3</v>
       </c>
       <c r="F25">
-        <v>5.973E-3</v>
-      </c>
-      <c r="G25">
         <v>1.0012800000000001E-2</v>
       </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25" t="str">
-        <f>IMDIV(B26,B25)</f>
-        <v>2.98329465571271</v>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.9832946557127098</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6.9075654961593003</v>
+      </c>
+      <c r="L25" s="2">
+        <v>13.5565045427188</v>
+      </c>
+      <c r="M25" s="2">
+        <v>19.164741750804101</v>
+      </c>
+      <c r="N25" s="2">
+        <v>27.911772930648802</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -6252,64 +14348,18 @@
         <v>6.1728100000000001E-2</v>
       </c>
       <c r="F26">
-        <v>0.14912300000000001</v>
-      </c>
-      <c r="G26">
         <v>0.27947499999999997</v>
       </c>
-      <c r="I26">
-        <v>64</v>
-      </c>
-      <c r="J26" t="str">
-        <f>IMDIV(C26,C25)</f>
-        <v>6.9075654961593</v>
-      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I27">
-        <v>128</v>
-      </c>
-      <c r="J27" t="str">
-        <f>IMDIV(D26,D25)</f>
-        <v>13.5565045427188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I28">
-        <v>256</v>
-      </c>
-      <c r="J28" t="str">
-        <f>IMDIV(E26,E25)</f>
-        <v>19.1647417508041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I29">
-        <v>384</v>
-      </c>
-      <c r="J29" t="str">
-        <f>IMDIV(F26,F25)</f>
-        <v>24.9661811485016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I30">
-        <v>512</v>
-      </c>
-      <c r="J30" t="str">
-        <f>IMDIV(G26,G25)</f>
-        <v>27.9117729306488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -6323,19 +14373,25 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -6352,20 +14408,28 @@
         <v>3.83667E-5</v>
       </c>
       <c r="F48" s="1">
-        <v>3.7651799999999998E-5</v>
-      </c>
-      <c r="G48" s="1">
         <v>3.2440900000000003E-5</v>
       </c>
-      <c r="I48">
-        <v>32</v>
-      </c>
-      <c r="J48" t="str">
-        <f>IMDIV(B49,B48)</f>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="2">
         <v>3.35698295723786</v>
       </c>
+      <c r="K48" s="2">
+        <v>7.7299048953642897</v>
+      </c>
+      <c r="L48" s="2">
+        <v>28.095122750523601</v>
+      </c>
+      <c r="M48" s="2">
+        <v>121.34793974983501</v>
+      </c>
+      <c r="N48" s="2">
+        <v>555.60419100579804</v>
+      </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -6382,64 +14446,18 @@
         <v>4.6557200000000003E-3</v>
       </c>
       <c r="F49">
-        <v>1.02732E-2</v>
-      </c>
-      <c r="G49">
         <v>1.80243E-2</v>
       </c>
-      <c r="I49">
-        <v>64</v>
-      </c>
-      <c r="J49" t="str">
-        <f>IMDIV(C49,C48)</f>
-        <v>7.72990489536429</v>
-      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50">
-        <v>128</v>
-      </c>
-      <c r="J50" t="str">
-        <f>IMDIV(D49,D48)</f>
-        <v>28.0951227505236</v>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51">
-        <v>256</v>
-      </c>
-      <c r="J51" t="str">
-        <f>IMDIV(E49,E48)</f>
-        <v>121.347939749835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I52">
-        <v>384</v>
-      </c>
-      <c r="J52" t="str">
-        <f>IMDIV(F49,F48)</f>
-        <v>272.847513266298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I53">
-        <v>512</v>
-      </c>
-      <c r="J53" t="str">
-        <f>IMDIV(G49,G48)</f>
-        <v>555.604191005798</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>9</v>
       </c>
@@ -6453,19 +14471,25 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
         <v>15</v>
       </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -6482,20 +14506,28 @@
         <v>1.30036E-5</v>
       </c>
       <c r="F68" s="1">
-        <v>1.1529600000000001E-5</v>
-      </c>
-      <c r="G68" s="1">
         <v>1.21645E-5</v>
       </c>
-      <c r="I68">
-        <v>32</v>
-      </c>
-      <c r="J68" t="str">
-        <f>IMDIV(B69,B68)</f>
-        <v>65.2025472896426</v>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="2">
+        <v>65.202547289642595</v>
+      </c>
+      <c r="K68" s="2">
+        <v>258.91343447296902</v>
+      </c>
+      <c r="L68" s="2">
+        <v>921.60257112596298</v>
+      </c>
+      <c r="M68" s="2">
+        <v>4244.4476914085299</v>
+      </c>
+      <c r="N68" s="2">
+        <v>20842.451395454002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -6512,64 +14544,18 @@
         <v>5.5193100000000002E-2</v>
       </c>
       <c r="F69">
-        <v>0.134524</v>
-      </c>
-      <c r="G69">
         <v>0.25353799999999999</v>
       </c>
-      <c r="I69">
-        <v>64</v>
-      </c>
-      <c r="J69" t="str">
-        <f>IMDIV(C69,C68)</f>
-        <v>258.913434472969</v>
-      </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I70">
-        <v>128</v>
-      </c>
-      <c r="J70" t="str">
-        <f>IMDIV(D69,D68)</f>
-        <v>921.602571125963</v>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71">
-        <v>256</v>
-      </c>
-      <c r="J71" t="str">
-        <f>IMDIV(E69,E68)</f>
-        <v>4244.44769140853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I72">
-        <v>384</v>
-      </c>
-      <c r="J72" t="str">
-        <f>IMDIV(F69,F68)</f>
-        <v>11667.7074660006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I73">
-        <v>512</v>
-      </c>
-      <c r="J73" t="str">
-        <f>IMDIV(G69,G68)</f>
-        <v>20842.451395454</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="I86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>9</v>
       </c>
@@ -6583,19 +14569,25 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
         <v>15</v>
       </c>
-      <c r="I87" t="s">
-        <v>20</v>
-      </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="K87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -6612,20 +14604,28 @@
         <v>5.3753400000000003E-6</v>
       </c>
       <c r="F88" s="1">
-        <v>4.9017900000000004E-6</v>
-      </c>
-      <c r="G88" s="1">
         <v>4.9691200000000001E-6</v>
       </c>
-      <c r="I88">
-        <v>32</v>
-      </c>
-      <c r="J88" t="str">
-        <f>IMDIV(B89,B88)</f>
-        <v>3.57372540134903</v>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="2">
+        <v>3.5737254013490301</v>
+      </c>
+      <c r="K88" s="2">
+        <v>20.873922434762299</v>
+      </c>
+      <c r="L88" s="2">
+        <v>74.177766939982305</v>
+      </c>
+      <c r="M88" s="2">
+        <v>349.54626125975301</v>
+      </c>
+      <c r="N88" s="2">
+        <v>1592.39261680136</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -6642,57 +14642,280 @@
         <v>1.87893E-3</v>
       </c>
       <c r="F89">
-        <v>4.3262500000000002E-3</v>
-      </c>
-      <c r="G89">
         <v>7.9127899999999994E-3</v>
       </c>
-      <c r="I89">
-        <v>64</v>
-      </c>
-      <c r="J89" t="str">
-        <f>IMDIV(C89,C88)</f>
-        <v>20.8739224347623</v>
-      </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I90">
-        <v>128</v>
-      </c>
-      <c r="J90" t="str">
-        <f>IMDIV(D89,D88)</f>
-        <v>74.1777669399823</v>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I91">
-        <v>256</v>
-      </c>
-      <c r="J91" t="str">
-        <f>IMDIV(E89,E88)</f>
-        <v>349.546261259753</v>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" t="s">
+        <v>11</v>
+      </c>
+      <c r="M108" t="s">
+        <v>12</v>
+      </c>
+      <c r="N108" t="s">
+        <v>14</v>
+      </c>
+      <c r="O108" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I92">
-        <v>384</v>
-      </c>
-      <c r="J92" t="str">
-        <f>IMDIV(F89,F88)</f>
-        <v>882.585749287505</v>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1.7214199999999999E-2</v>
+      </c>
+      <c r="C109">
+        <v>1.7228899999999998E-2</v>
+      </c>
+      <c r="D109">
+        <v>2.9396599999999998E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.115548</v>
+      </c>
+      <c r="F109">
+        <v>0.27812700000000001</v>
+      </c>
+      <c r="G109">
+        <v>0.46824500000000002</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1.7367799999999999E-2</v>
+      </c>
+      <c r="K109">
+        <v>1.7389600000000002E-2</v>
+      </c>
+      <c r="L109">
+        <v>1.7467799999999999E-2</v>
+      </c>
+      <c r="M109">
+        <v>1.7633300000000001E-2</v>
+      </c>
+      <c r="N109">
+        <v>1.8088900000000002E-2</v>
+      </c>
+      <c r="O109">
+        <v>2.3330799999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I93">
-        <v>512</v>
-      </c>
-      <c r="J93" t="str">
-        <f>IMDIV(G89,G88)</f>
-        <v>1592.39261680136</v>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>1.7032599999999998E-2</v>
+      </c>
+      <c r="C110">
+        <v>1.7079400000000002E-2</v>
+      </c>
+      <c r="D110">
+        <v>4.3045199999999999E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.20364699999999999</v>
+      </c>
+      <c r="F110">
+        <v>0.44966299999999998</v>
+      </c>
+      <c r="G110">
+        <v>0.84821899999999995</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>1.7171800000000001E-2</v>
+      </c>
+      <c r="K110">
+        <v>1.7092799999999998E-2</v>
+      </c>
+      <c r="L110">
+        <v>2.19051E-2</v>
+      </c>
+      <c r="M110">
+        <v>8.4879800000000005E-2</v>
+      </c>
+      <c r="N110">
+        <v>0.20635000000000001</v>
+      </c>
+      <c r="O110">
+        <v>0.33608100000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" t="s">
+        <v>14</v>
+      </c>
+      <c r="O129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="2">
+        <v>58.091575559712297</v>
+      </c>
+      <c r="C130" s="2">
+        <v>58.0420108074224</v>
+      </c>
+      <c r="D130" s="2">
+        <v>34.017539443337</v>
+      </c>
+      <c r="E130" s="2">
+        <v>8.6544120192474097</v>
+      </c>
+      <c r="F130" s="2">
+        <v>3.59547976284215</v>
+      </c>
+      <c r="G130" s="2">
+        <v>2.1356341231620202</v>
+      </c>
+      <c r="I130" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" s="2">
+        <v>57.577816418890102</v>
+      </c>
+      <c r="K130" s="2">
+        <v>57.505635552284097</v>
+      </c>
+      <c r="L130" s="2">
+        <v>57.248193819485003</v>
+      </c>
+      <c r="M130" s="2">
+        <v>56.710882251195201</v>
+      </c>
+      <c r="N130" s="2">
+        <v>55.282521325232601</v>
+      </c>
+      <c r="O130" s="2">
+        <v>42.8617964236117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="2">
+        <v>58.710942545471603</v>
+      </c>
+      <c r="C131" s="2">
+        <v>58.550066161574797</v>
+      </c>
+      <c r="D131" s="2">
+        <v>23.231393976564199</v>
+      </c>
+      <c r="E131" s="2">
+        <v>4.91045780198088</v>
+      </c>
+      <c r="F131" s="2">
+        <v>2.2238876669861698</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1.1789408159921</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="2">
+        <v>58.235013219347998</v>
+      </c>
+      <c r="K131" s="2">
+        <v>58.504165496583397</v>
+      </c>
+      <c r="L131" s="2">
+        <v>45.651469292539197</v>
+      </c>
+      <c r="M131" s="2">
+        <v>11.7813661200898</v>
+      </c>
+      <c r="N131" s="2">
+        <v>4.8461352071722796</v>
+      </c>
+      <c r="O131" s="2">
+        <v>2.9754731746215901</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Benchmark Visuals.xlsx
+++ b/Benchmark Visuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blcag\Documents\CMU Spring 2023 Folder\Animation\Final\AMCViewer-simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9331E-FDA4-4CFF-A97B-0F9505F0475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB03951-A652-46F7-9FE5-3D28A3615AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14160,8 +14159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14315,19 +14314,19 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>2.9832946557127098</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <v>6.9075654961593003</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>13.5565045427188</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25">
         <v>19.164741750804101</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>27.911772930648802</v>
       </c>
     </row>
@@ -14413,19 +14412,19 @@
       <c r="I48" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>3.35698295723786</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48">
         <v>7.7299048953642897</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48">
         <v>28.095122750523601</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48">
         <v>121.34793974983501</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48">
         <v>555.60419100579804</v>
       </c>
     </row>
@@ -14511,19 +14510,19 @@
       <c r="I68" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68">
         <v>65.202547289642595</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68">
         <v>258.91343447296902</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68">
         <v>921.60257112596298</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68">
         <v>4244.4476914085299</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68">
         <v>20842.451395454002</v>
       </c>
     </row>
@@ -14609,19 +14608,19 @@
       <c r="I88" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88">
         <v>3.5737254013490301</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88">
         <v>20.873922434762299</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88">
         <v>74.177766939982305</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88">
         <v>349.54626125975301</v>
       </c>
-      <c r="N88" s="2">
+      <c r="N88">
         <v>1592.39261680136</v>
       </c>
     </row>
@@ -14829,43 +14828,43 @@
       <c r="A130" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>58.091575559712297</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>58.0420108074224</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>34.017539443337</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130">
         <v>8.6544120192474097</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <v>3.59547976284215</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130">
         <v>2.1356341231620202</v>
       </c>
       <c r="I130" t="s">
         <v>25</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130">
         <v>57.577816418890102</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130">
         <v>57.505635552284097</v>
       </c>
-      <c r="L130" s="2">
+      <c r="L130">
         <v>57.248193819485003</v>
       </c>
-      <c r="M130" s="2">
+      <c r="M130">
         <v>56.710882251195201</v>
       </c>
-      <c r="N130" s="2">
+      <c r="N130">
         <v>55.282521325232601</v>
       </c>
-      <c r="O130" s="2">
+      <c r="O130">
         <v>42.8617964236117</v>
       </c>
     </row>
@@ -14873,43 +14872,43 @@
       <c r="A131" t="s">
         <v>17</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>58.710942545471603</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>58.550066161574797</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>23.231393976564199</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131">
         <v>4.91045780198088</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131">
         <v>2.2238876669861698</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131">
         <v>1.1789408159921</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131">
         <v>58.235013219347998</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131">
         <v>58.504165496583397</v>
       </c>
-      <c r="L131" s="2">
+      <c r="L131">
         <v>45.651469292539197</v>
       </c>
-      <c r="M131" s="2">
+      <c r="M131">
         <v>11.7813661200898</v>
       </c>
-      <c r="N131" s="2">
+      <c r="N131">
         <v>4.8461352071722796</v>
       </c>
-      <c r="O131" s="2">
+      <c r="O131">
         <v>2.9754731746215901</v>
       </c>
     </row>
